--- a/Örnek 19 - Yüzde Hesaplama.xlsx
+++ b/Örnek 19 - Yüzde Hesaplama.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamis\Desktop\Excel - MAH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17C34C77-95E1-40B9-972F-8D85E51D0C42}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C87811A-40D0-4951-B8C1-4E1A5DC617DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-dortislemorneği" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>harcama toplamı</t>
   </si>
@@ -76,11 +79,17 @@
   <si>
     <t>Bölüm:</t>
   </si>
+  <si>
+    <t>Muhammed Ali Harmancı</t>
+  </si>
+  <si>
+    <t>Yönetim Bilişim Sistemleri</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -522,27 +531,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.125" style="3"/>
     <col min="2" max="2" width="3" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="3" customWidth="1"/>
     <col min="5" max="5" width="19" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="3" customWidth="1"/>
     <col min="8" max="8" width="22" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:9" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:9" ht="25.85" x14ac:dyDescent="0.45">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -562,58 +571,79 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="5" spans="3:9" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="5" spans="3:9" ht="46.2" x14ac:dyDescent="0.75">
       <c r="C5" s="1">
         <v>756</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="7" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D5" s="1">
+        <f>756*"8%"</f>
+        <v>60.480000000000004</v>
+      </c>
+      <c r="E5" s="1">
+        <f>756*"10%"</f>
+        <v>75.600000000000009</v>
+      </c>
+      <c r="F5" s="1">
+        <f>756*"5%"</f>
+        <v>37.800000000000004</v>
+      </c>
+      <c r="G5" s="1">
+        <f>756*"3%"</f>
+        <v>22.68</v>
+      </c>
+      <c r="H5" s="1">
+        <f>756*"12%"</f>
+        <v>90.72</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="14.3" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D9" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:9" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="10" spans="3:9" ht="30.6" x14ac:dyDescent="0.5">
       <c r="D10" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:9" ht="14.3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:9" ht="15.65" x14ac:dyDescent="0.25">
       <c r="F14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10">
+        <v>20215070055</v>
+      </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:9" ht="15.65" x14ac:dyDescent="0.25">
       <c r="F15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:9" ht="15.65" x14ac:dyDescent="0.25">
       <c r="F16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
     </row>
